--- a/productosnuevosdimexa.xlsx
+++ b/productosnuevosdimexa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +498,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>VICTOR SALAS VERA</t>
+          <t>MARIO QUISPE QUISPE</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -1686,22 +1686,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>154079</t>
+          <t>152110</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08/02/2022</t>
+          <t>09/02/2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10339591348</t>
+          <t>20130297685</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>BOTICA MARYCE</t>
+          <t>CLINICA ORTEGA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1715,29 +1715,29 @@
         </is>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>ALMILCAR SILVA LOPEZ</t>
+          <t>JUAN INGA HUACACHI</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>SAN NICOLAS</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>RODRIGUEZ DE MENDOZA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -1754,27 +1754,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>154031</t>
+          <t>152259</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10334257199</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BOTICA NIÑO JESUS DE PRAGA</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>ALMILCAR SILVA LOPEZ</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -1822,22 +1822,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>154029</t>
+          <t>152619</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>14/02/2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20103269319</t>
+          <t>10070915346</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CLINICA DEL PACIFICO S.A.</t>
+          <t>BOTICA FLORES</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1851,29 +1851,29 @@
         </is>
       </c>
       <c r="J22">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>YANEDITH GUERRERO ROA</t>
+          <t>JHAN PONCE RAMOS</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
     </row>
@@ -1890,27 +1890,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>154020</t>
+          <t>152668</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>15/02/2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20445399001</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>GALENICA FARMA</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1919,29 +1919,29 @@
         </is>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>JACINTO LEON CHAVEZ</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>DEL SANTA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -1958,27 +1958,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>153789</t>
+          <t>152704</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>15/02/2022</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10009641853</t>
+          <t>10198023758</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BOTICA JUANJUI</t>
+          <t>BOTICA MUNDIAL</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1994,20 +1994,1652 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>JOSE ROY FERNANDEZ TARRILLO</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>CHILCA</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>152705</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15/02/2022</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10450954204</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>BOTICA´S MUNDIAL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>JONATAN GASPAR CAPACYACHI</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>CHILCA</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>152840</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16/02/2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20603260474</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>DROGUERIA NOBIS PHARMA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>KATERYNE MORI FASABI</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>CALLERIA</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>CORONEL PORTILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>152848</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16/02/2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20130297685</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>CLINICA ORTEGA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>JUAN INGA HUACACHI</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>152914</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20393637987</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BOTICA M &amp; W E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>KATERYNE MORI FASABI</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>UCAYALI</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>CALLERIA</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>CORONEL PORTILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>152922</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10746470156</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>BOTICA YENIFER</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>KATERYNE MORI FASABI</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>HUANUCO</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PUERTO INCA</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PUERTO INCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>152989</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10409343673</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>BOTICA FANY</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>EMERSON MEZA ARROYO</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>CHUPACA</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>CHUPACA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>153003</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20602904840</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>DROGUERIA MED.COMPANY S.A.C.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ROSMEL QUISPE INGA</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>EL TAMBO</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>153066</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20603165196</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>DROGUERIA QUIMIJAS.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J32">
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ROSMEL QUISPE INGA</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>EL TAMBO</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>153184</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>18/02/2022</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20568684533</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>BOTICA 24 HORAS</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>EMERSON MEZA ARROYO</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>EL TAMBO</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>HUANCAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>154704</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10/02/2022</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20602019455</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>BOTICA DARYL'FARM</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>WILSON SAAVEDRA MONTERO</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>156004</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18/02/2022</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10475266086</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FARMACIA MUNDOFARMA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ROSMERY JULCAMORO ORTIZ</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>155859</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20603323158</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>BIG PROYECTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>VEINTISEIS DE OCTUBRE</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>155851</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>20603323158</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>BIG PROYECTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>155794</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>10410399071</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MAS VIDA Z&amp;D</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>TIFANY NAVARRO ESCOBEDO</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
           <t>SAN MARTIN</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>TARAPOTO</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>155332</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14/02/2022</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20529634600</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FARMACIA NUESTRA SEÑORA DE GUADALULPE</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS ASCOY ZULOETA</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>155156</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14/02/2022</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20450337839</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>BOTICA MEDINA FARMA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ADOLFO SALDARRIAGA DEZA</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>JUANJUI</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>MARISCAL CACERES</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>154941</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10074428750</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>BOTICA EL MILAGRO</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>TIFANY NAVARRO ESCOBEDO</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LORETO</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>YURIMAGUAS</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>ALTO AMAZONAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>154407</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>09/02/2022</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20445360300</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>BOTICA BELENFARMA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>ANCASH</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>CHIMBOTE</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>DEL SANTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>154208</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>08/02/2022</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>10337388618</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BOTICA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>BONGARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>154079</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>08/02/2022</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>10339591348</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>BOTICA MARYCE</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ DE MENDOZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>154031</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>10334257199</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>BOTICA NIÑO JESUS DE PRAGA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>CHACHAPOYAS</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CHACHAPOYAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>154029</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20103269319</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>CLINICA DEL PACIFICO S.A.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J46">
+        <v>23</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>YANEDITH GUERRERO ROA</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>LAMBAYEQUE</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>CHICLAYO</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>CHICLAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>154020</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20445399001</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>GALENICA FARMA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ANCASH</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>CHIMBOTE</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>DEL SANTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>153789</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10009641853</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BOTICA JUANJUI</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ADOLFO SALDARRIAGA DEZA</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>JUANJUI</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>MARISCAL CACERES</t>
         </is>

--- a/productosnuevosdimexa.xlsx
+++ b/productosnuevosdimexa.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -938,22 +938,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>151245</t>
+          <t>401826</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/02/2022</t>
+          <t>22/02/2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10100524037</t>
+          <t>10437795334</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>BOTICA VIRGEN DE FATIMA</t>
+          <t>FARMACIA QORIFARMA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -974,22 +974,22 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>ANTONIO DIAZ PUNTACA</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>HUANCAVELICA</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>PAMPAS</t>
+          <t>JULIACA</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>TAYACAJA</t>
+          <t>SAN ROMAN</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>151260</t>
+          <t>402179</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>02/02/2022</t>
+          <t>23/02/2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20607478016</t>
+          <t>20601052572</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>DROGUERÍA SMEDIC</t>
+          <t>DISERT S.R.L.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1042,22 +1042,22 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>MIGUEL ACROTA TURPO</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
     </row>
@@ -1074,27 +1074,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>151321</t>
+          <t>402375</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>02/02/2022</t>
+          <t>23/02/2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10432815752</t>
+          <t>20604794979</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BOTICA M Y O</t>
+          <t>FARMACIA PHARMANDES</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1103,29 +1103,29 @@
         </is>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>KATERYNE MORI FASABI</t>
+          <t>LIZARDO ADAN GUERRA QUINO</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>YANAHUARA</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
     </row>
@@ -1142,27 +1142,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>151347</t>
+          <t>402669</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>02/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20486277221</t>
+          <t>10445206348</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>B &amp; V DISTRIBUIDORA</t>
+          <t>BOTICA SAN SEBASTIAN</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1171,29 +1171,29 @@
         </is>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>ROSMEL QUISPE INGA</t>
+          <t>JULIO CASTRO HUAYAPA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>PUNO</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>PUNO</t>
         </is>
       </c>
     </row>
@@ -1210,27 +1210,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>151412</t>
+          <t>402722</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>24/02/2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20608304275</t>
+          <t>20163652201</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BOTICA YARIS PHARMA</t>
+          <t>CENTRO MEDICO MONTE CARMELO S.C.R.L.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1246,22 +1246,22 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>KATERYNE MORI FASABI</t>
+          <t>JULIO FERNANDEZ FERNANDEZ</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>YARINACOCHA</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
     </row>
@@ -1278,22 +1278,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>151399</t>
+          <t>402847</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20604122075</t>
+          <t>20608399268</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>DROGUERIA CANAAN FARMA</t>
+          <t>DEKOFARMA</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1307,29 +1307,29 @@
         </is>
       </c>
       <c r="J14">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>EMERSON MEZA ARROYO</t>
+          <t>DONY ORTEGA MONROY</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>PAUCARPATA</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>AREQUIPA</t>
         </is>
       </c>
     </row>
@@ -1346,27 +1346,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>151550</t>
+          <t>403604</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>04/02/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10416595556</t>
+          <t>20604453934</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>BOTICA BIOFARMA</t>
+          <t>BOTICA GLOBAL PHARMA M&amp;M</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1375,29 +1375,29 @@
         </is>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>YENY VALER ABAL</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>WANCHAQ</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CUSCO</t>
         </is>
       </c>
     </row>
@@ -1414,27 +1414,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>151556</t>
+          <t>153184</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>04/02/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20601958695</t>
+          <t>20568684533</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>BOTICA BIOFARMA</t>
+          <t>BOTICA 24 HORAS</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1443,29 +1443,29 @@
         </is>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>EMERSON MEZA ARROYO</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>HUANCAVELICA</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>PAMPAS</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>TAYACAJA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>151728</t>
+          <t>152989</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10472076081</t>
+          <t>10409343673</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>BOTICA 3UNIDOS</t>
+          <t>BOTICA FANY</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1518,22 +1518,22 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>KATERYNE MORI FASABI</t>
+          <t>EMERSON MEZA ARROYO</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>CHUPACA</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>151858</t>
+          <t>151897</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20486562341</t>
+          <t>10214350403</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FARMACIA SOCORRO</t>
+          <t>FARMACIA VIRGEN MARIA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1579,14 +1579,14 @@
         </is>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>ROSMEL QUISPE INGA</t>
+          <t>EMERSON MEZA ARROYO</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1618,22 +1618,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>151897</t>
+          <t>151399</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>08/02/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10214350403</t>
+          <t>20604122075</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FARMACIA VIRGEN MARIA</t>
+          <t>DROGUERIA CANAAN FARMA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1686,27 +1686,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>152110</t>
+          <t>153380</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20130297685</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CLINICA ORTEGA</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1715,14 +1715,14 @@
         </is>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>JUAN INGA HUACACHI</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1754,22 +1754,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>152259</t>
+          <t>153066</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20486562341</t>
+          <t>20603165196</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FARMACIA SOCORRO</t>
+          <t>DROGUERIA QUIMIJAS.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1822,27 +1822,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>152619</t>
+          <t>153003</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>14/02/2022</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10070915346</t>
+          <t>20602904840</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BOTICA FLORES</t>
+          <t>DROGUERIA MED.COMPANY S.A.C.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1851,29 +1851,29 @@
         </is>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>JHAN PONCE RAMOS</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>HUANUCO</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>RUPA-RUPA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>LEONCIO PRADO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -1890,27 +1890,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>152668</t>
+          <t>152848</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15/02/2022</t>
+          <t>16/02/2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20486562341</t>
+          <t>20130297685</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FARMACIA SOCORRO</t>
+          <t>CLINICA ORTEGA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1919,14 +1919,14 @@
         </is>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>ROSMEL QUISPE INGA</t>
+          <t>JUAN INGA HUACACHI</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>152704</t>
+          <t>152668</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10198023758</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BOTICA MUNDIAL</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1987,14 +1987,14 @@
         </is>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -2026,22 +2026,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>152705</t>
+          <t>152259</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10450954204</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BOTICA´S MUNDIAL</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>JONATAN GASPAR CAPACYACHI</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -2094,22 +2094,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>152840</t>
+          <t>152110</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16/02/2022</t>
+          <t>09/02/2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20603260474</t>
+          <t>20130297685</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>DROGUERIA NOBIS PHARMA</t>
+          <t>CLINICA ORTEGA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2130,22 +2130,22 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>KATERYNE MORI FASABI</t>
+          <t>JUAN INGA HUACACHI</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -2162,27 +2162,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>152848</t>
+          <t>151858</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16/02/2022</t>
+          <t>08/02/2022</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>20130297685</t>
+          <t>20486562341</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CLINICA ORTEGA</t>
+          <t>FARMACIA SOCORRO</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>JUAN INGA HUACACHI</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -2230,27 +2230,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>152914</t>
+          <t>151347</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>02/02/2022</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>20393637987</t>
+          <t>20486277221</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BOTICA M &amp; W E.I.R.L.</t>
+          <t>B &amp; V DISTRIBUIDORA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2259,29 +2259,29 @@
         </is>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>KATERYNE MORI FASABI</t>
+          <t>ROSMEL QUISPE INGA</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>UCAYALI</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>CALLERIA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>CORONEL PORTILLO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>152989</t>
+          <t>152914</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2376,12 +2376,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10409343673</t>
+          <t>20393637987</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>BOTICA FANY</t>
+          <t>BOTICA M &amp; W E.I.R.L.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2402,22 +2402,22 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>EMERSON MEZA ARROYO</t>
+          <t>KATERYNE MORI FASABI</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>CHUPACA</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
     </row>
@@ -2434,27 +2434,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>153003</t>
+          <t>152840</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>16/02/2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>20602904840</t>
+          <t>20603260474</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>DROGUERIA MED.COMPANY S.A.C.</t>
+          <t>DROGUERIA NOBIS PHARMA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2463,29 +2463,29 @@
         </is>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>ROSMEL QUISPE INGA</t>
+          <t>KATERYNE MORI FASABI</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>JUNIN</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
     </row>
@@ -2502,22 +2502,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>153066</t>
+          <t>152705</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>15/02/2022</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20603165196</t>
+          <t>10450954204</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>DROGUERIA QUIMIJAS.</t>
+          <t>BOTICA´S MUNDIAL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2531,14 +2531,14 @@
         </is>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>ROSMEL QUISPE INGA</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>153184</t>
+          <t>152704</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>15/02/2022</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>20568684533</t>
+          <t>10198023758</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BOTICA 24 HORAS</t>
+          <t>BOTICA MUNDIAL</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>EMERSON MEZA ARROYO</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -2638,27 +2638,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>154704</t>
+          <t>152619</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>14/02/2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20602019455</t>
+          <t>10070915346</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BOTICA DARYL'FARM</t>
+          <t>BOTICA FLORES</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>FA</t>
+          <t>FG</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2674,22 +2674,22 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>WILSON SAAVEDRA MONTERO</t>
+          <t>JHAN PONCE RAMOS</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>HUANUCO</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>RUPA-RUPA</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>LEONCIO PRADO</t>
         </is>
       </c>
     </row>
@@ -2706,22 +2706,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>156004</t>
+          <t>151728</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>07/02/2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10475266086</t>
+          <t>10472076081</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FARMACIA MUNDOFARMA</t>
+          <t>BOTICA 3UNIDOS</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>ROSMERY JULCAMORO ORTIZ</t>
+          <t>KATERYNE MORI FASABI</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CALLERIA</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
     </row>
@@ -2774,22 +2774,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>155859</t>
+          <t>151556</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>04/02/2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20603323158</t>
+          <t>20601958695</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BIG PROYECTS S.A.C.</t>
+          <t>BOTICA BIOFARMA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2810,22 +2810,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>JACINTO LEON CHAVEZ</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>HUANCAVELICA</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>PAMPAS</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>TAYACAJA</t>
         </is>
       </c>
     </row>
@@ -2842,27 +2842,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>155851</t>
+          <t>151550</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>04/02/2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20603323158</t>
+          <t>10416595556</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BIG PROYECTS S.A.C.</t>
+          <t>BOTICA BIOFARMA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2871,29 +2871,29 @@
         </is>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>JACINTO LEON CHAVEZ</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>155794</t>
+          <t>151412</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10410399071</t>
+          <t>20608304275</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>MAS VIDA Z&amp;D</t>
+          <t>BOTICA YARIS PHARMA</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2939,29 +2939,29 @@
         </is>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>TIFANY NAVARRO ESCOBEDO</t>
+          <t>KATERYNE MORI FASABI</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
     </row>
@@ -2978,22 +2978,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>155332</t>
+          <t>151321</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14/02/2022</t>
+          <t>02/02/2022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20529634600</t>
+          <t>10432815752</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>FARMACIA NUESTRA SEÑORA DE GUADALULPE</t>
+          <t>BOTICA M Y O</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3014,22 +3014,22 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>JUAN CARLOS ASCOY ZULOETA</t>
+          <t>KATERYNE MORI FASABI</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>UCAYALI</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>YARINACOCHA</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>CAJAMARCA</t>
+          <t>CORONEL PORTILLO</t>
         </is>
       </c>
     </row>
@@ -3046,22 +3046,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>155156</t>
+          <t>151260</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14/02/2022</t>
+          <t>02/02/2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>20450337839</t>
+          <t>20607478016</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BOTICA MEDINA FARMA</t>
+          <t>DROGUERÍA SMEDIC</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3075,29 +3075,29 @@
         </is>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>ADOLFO SALDARRIAGA DEZA</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
+          <t>JUNIN</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>JUANJUI</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>MARISCAL CACERES</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
     </row>
@@ -3114,22 +3114,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>154941</t>
+          <t>151245</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>11/02/2022</t>
+          <t>01/02/2022</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10074428750</t>
+          <t>10100524037</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BOTICA EL MILAGRO</t>
+          <t>BOTICA VIRGEN DE FATIMA</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3143,29 +3143,29 @@
         </is>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>TIFANY NAVARRO ESCOBEDO</t>
+          <t>JONATAN GASPAR CAPACYACHI</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LORETO</t>
+          <t>HUANCAVELICA</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>YURIMAGUAS</t>
+          <t>PAMPAS</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>ALTO AMAZONAS</t>
+          <t>TAYACAJA</t>
         </is>
       </c>
     </row>
@@ -3182,27 +3182,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>154407</t>
+          <t>154704</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>09/02/2022</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>20445360300</t>
+          <t>20602019455</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BOTICA BELENFARMA</t>
+          <t>BOTICA DARYL'FARM</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>FG</t>
+          <t>FA</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3218,22 +3218,22 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>JACINTO LEON CHAVEZ</t>
+          <t>WILSON SAAVEDRA MONTERO</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>LA LIBERTAD</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>DEL SANTA</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
     </row>
@@ -3250,22 +3250,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>154208</t>
+          <t>156899</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>08/02/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10337388618</t>
+          <t>20607438006</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BOTICA LIBERTAD</t>
+          <t>FARMACIA DE POLICLINICOINKAMAY</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3286,22 +3286,22 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ALMILCAR SILVA LOPEZ</t>
+          <t>JOSE ALVA PELAEZ</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>LAMBAYEQUE</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>JAZAN</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>BONGARA</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>154079</t>
+          <t>157131</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>08/02/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10339591348</t>
+          <t>20601126240</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BOTICA MARYCE</t>
+          <t>FARMACIA CHUQUICHACA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3347,7 +3347,7 @@
         </is>
       </c>
       <c r="J44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -3364,12 +3364,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>SAN NICOLAS</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>RODRIGUEZ DE MENDOZA</t>
+          <t>CHACHAPOYAS</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>154031</t>
+          <t>157112</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>28/02/2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10334257199</t>
+          <t>20601094348</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>BOTICA NIÑO JESUS DE PRAGA</t>
+          <t>BOTICA TONY</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3415,29 +3415,29 @@
         </is>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>ALMILCAR SILVA LOPEZ</t>
+          <t>ROSMERY JULCAMORO ORTIZ</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>AMAZONAS</t>
+          <t>CAJAMARCA</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>PEDRO GALVEZ</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>CHACHAPOYAS</t>
+          <t>SAN MARCOS</t>
         </is>
       </c>
     </row>
@@ -3454,22 +3454,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>154029</t>
+          <t>156931</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>25/02/2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20103269319</t>
+          <t>20606485370</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CLINICA DEL PACIFICO S.A.</t>
+          <t>DROGUERIA GRUPO FARMA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="J46">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3522,22 +3522,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>154020</t>
+          <t>156615</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>07/02/2022</t>
+          <t>23/02/2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>20445399001</t>
+          <t>20603323158</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>GALENICA FARMA</t>
+          <t>BIG PROYECTS S.A.C.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3563,17 +3563,17 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>ANCASH</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>CHIMBOTE</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DEL SANTA</t>
+          <t>PIURA</t>
         </is>
       </c>
     </row>
@@ -3590,56 +3590,1076 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>156304</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>22/02/2022</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20603323158</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>BIG PROYECTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>VEINTISEIS DE OCTUBRE</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>156224</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21/02/2022</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>20487568911</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>DISFARMA SAC</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>JAEN</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>JAEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>156004</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>18/02/2022</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>10475266086</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FARMACIA MUNDOFARMA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ROSMERY JULCAMORO ORTIZ</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>155859</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20603323158</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>BIG PROYECTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>VEINTISEIS DE OCTUBRE</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>155851</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20603323158</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BIG PROYECTS S.A.C.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>TRUJILLO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>155794</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17/02/2022</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>10410399071</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MAS VIDA Z&amp;D</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>TIFANY NAVARRO ESCOBEDO</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>TARAPOTO</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>155332</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14/02/2022</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20529634600</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FARMACIA NUESTRA SEÑORA DE GUADALULPE</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS ASCOY ZULOETA</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>CAJAMARCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>155156</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>14/02/2022</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20450337839</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BOTICA MEDINA FARMA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ADOLFO SALDARRIAGA DEZA</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>JUANJUI</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>MARISCAL CACERES</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>154941</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10074428750</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BOTICA EL MILAGRO</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>TIFANY NAVARRO ESCOBEDO</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>LORETO</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>YURIMAGUAS</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>ALTO AMAZONAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>154407</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>09/02/2022</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20445360300</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>BOTICA BELENFARMA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>ANCASH</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>CHIMBOTE</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>DEL SANTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>154208</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>08/02/2022</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>10337388618</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>BOTICA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>JAZAN</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>BONGARA</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>154079</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>08/02/2022</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>10339591348</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>BOTICA MARYCE</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>SAN NICOLAS</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>RODRIGUEZ DE MENDOZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>154031</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10334257199</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>BOTICA NIÑO JESUS DE PRAGA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ALMILCAR SILVA LOPEZ</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>AMAZONAS</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>CHACHAPOYAS</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CHACHAPOYAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>154029</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20103269319</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>CLINICA DEL PACIFICO S.A.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J61">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>YANEDITH GUERRERO ROA</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>LAMBAYEQUE</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>CHICLAYO</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>CHICLAYO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>154020</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>07/02/2022</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20445399001</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>GALENICA FARMA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FG</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>JACINTO LEON CHAVEZ</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>ANCASH</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>CHIMBOTE</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>DEL SANTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DIMEXA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>01/02/2022</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>153789</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>07/02/2022</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>10009641853</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>BOTICA JUANJUI</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>FG</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
-        </is>
-      </c>
-      <c r="J48">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>ASEA-T ALCOHOL GEL NAT X 350ML C/TAPA</t>
+        </is>
+      </c>
+      <c r="J63">
         <v>1</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>ADOLFO SALDARRIAGA DEZA</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>SAN MARTIN</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>JUANJUI</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>MARISCAL CACERES</t>
         </is>
